--- a/appendix/diff_rate.xlsx
+++ b/appendix/diff_rate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="1520" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9600" yWindow="1520" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rate" sheetId="1" r:id="rId1"/>
@@ -414,12 +414,24 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -434,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -443,6 +455,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,11 +738,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="12" max="12" width="10.83203125" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
@@ -760,7 +779,7 @@
       <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -779,54 +798,54 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -860,7 +879,7 @@
       <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -907,7 +926,7 @@
       <c r="K4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -952,7 +971,7 @@
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -995,7 +1014,7 @@
       <c r="K6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -1036,7 +1055,7 @@
       <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1075,7 +1094,7 @@
       <c r="K8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1112,7 +1131,7 @@
       <c r="K9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1147,7 +1166,7 @@
       <c r="K10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1180,7 +1199,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1213,7 +1232,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="1" t="s">
         <v>84</v>
       </c>
@@ -1244,7 +1263,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
         <v>89</v>
@@ -1273,7 +1292,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
@@ -1300,7 +1319,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1325,7 +1344,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1347,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>

--- a/appendix/diff_rate.xlsx
+++ b/appendix/diff_rate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dreamer/workspace/thesis/appendix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\thesis\appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1520" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="9600" yWindow="1515" windowWidth="28800" windowHeight="17595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="rate" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="121">
   <si>
     <t>O</t>
   </si>
@@ -385,13 +385,21 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d42372</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d54058</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -468,6 +476,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -739,15 +750,15 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="12" max="12" width="10.83203125" style="7"/>
+    <col min="12" max="12" width="10.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>99</v>
@@ -798,7 +809,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>99</v>
       </c>
@@ -849,7 +860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -898,7 +909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -945,7 +956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -1033,7 +1044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -1074,7 +1085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -1113,7 +1124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -1185,7 +1196,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
@@ -1218,7 +1229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -1249,7 +1260,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -1278,9 +1289,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1305,7 +1316,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -1330,7 +1341,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -1353,7 +1364,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F33" s="1"/>
     </row>
   </sheetData>
@@ -1370,9 +1386,9 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1441,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1478,7 +1494,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>100</v>
       </c>
@@ -1529,7 +1545,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -1578,7 +1594,7 @@
         <v>12157</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1625,7 +1641,7 @@
         <v>12297</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
@@ -1670,7 +1686,7 @@
         <v>16225</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>104</v>
       </c>
@@ -1713,7 +1729,7 @@
         <v>16593</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
@@ -1754,7 +1770,7 @@
         <v>16613</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>106</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>16649</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>107</v>
       </c>
@@ -1830,7 +1846,7 @@
         <v>16805</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>108</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>28588</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>109</v>
       </c>
@@ -1898,7 +1914,7 @@
         <v>29610</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>110</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>28432</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>111</v>
       </c>
@@ -1958,7 +1974,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -1985,7 +2001,7 @@
         <v>28785</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -2010,7 +2026,7 @@
         <v>28869</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
